--- a/medicine/Mort/Louis-Vincent_Thomas/Louis-Vincent_Thomas.xlsx
+++ b/medicine/Mort/Louis-Vincent_Thomas/Louis-Vincent_Thomas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Louis-Vincent Thomas, né le 20 mai 1922 à Paris et mort le 22 janvier 1994 à Paris[1], est un universitaire français, spécialiste de l'Afrique, qu'il a étudiée tour à tour ou simultanément sous les angles de la sociologie, de l'anthropologie et de l'ethnologie. Il est le créateur de la thanatologie, qui se veut le regroupement de tous les savoirs théologiques, philosophiques et scientifiques relatifs à la mort.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louis-Vincent Thomas, né le 20 mai 1922 à Paris et mort le 22 janvier 1994 à Paris, est un universitaire français, spécialiste de l'Afrique, qu'il a étudiée tour à tour ou simultanément sous les angles de la sociologie, de l'anthropologie et de l'ethnologie. Il est le créateur de la thanatologie, qui se veut le regroupement de tous les savoirs théologiques, philosophiques et scientifiques relatifs à la mort.
 Après avoir enseigné à l'université de Dakar (Sénégal), il a été professeur de sociologie à l'UER des Sciences sociales de l'Université Paris V.
 Ses écrits ont traité des idéologies et du socialisme, des rites funéraires et des systèmes de pensée en Afrique noire, puis de la mort, des religions et des idéologies funéraires en Afrique. Il a ensuite réalisé des études comparées sur la mort en Occident et en Afrique, avant de s'intéresser aux littératures de l'imaginaire, en particulier la science-fiction dans laquelle il voyait une réhabilitation des mythes. Il a souvent dénoncé la fausse rupture entre anthropologie et sociologie.
 </t>
@@ -513,10 +525,12 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les Diola. Essai d'analyse fonctionnelle sur une population de Basse-Casamance (thèse), Université de Paris : Faculté des lettres, 1959
-Joseph Kerharo et Louis-Vincent Thomas, La médecine traditionnelle des Diola de Basse-Casamance, Afrique-Documents, 5e et 6e cahiers, Dakar, 1963, 70 et 71, 179 p., p. 167-179[2]
+Joseph Kerharo et Louis-Vincent Thomas, La médecine traditionnelle des Diola de Basse-Casamance, Afrique-Documents, 5e et 6e cahiers, Dakar, 1963, 70 et 71, 179 p., p. 167-179
 Les idéologies négro-africaines d'aujourd'hui, Paris : A.G. Nizet, 1965
 Le socialisme et l'Afrique
 Tome 1, Essai sur le socialisme africain, Paris : Le livre Africain, 1966
